--- a/database/industries/darou/defara/balancesheet/yearly.xlsx
+++ b/database/industries/darou/defara/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\defara\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\defara\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA89E6B-B009-46BB-8A6C-ECB529EBB08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E62DD-D64B-4EC4-A364-9B9488308399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دفارا-داروسازی‌ فارابی‌</t>
@@ -37,21 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -70,21 +55,6 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1393-03-11 (8)</t>
-  </si>
-  <si>
-    <t>1394-03-18 (8)</t>
-  </si>
-  <si>
-    <t>1395-03-17 (9)</t>
-  </si>
-  <si>
-    <t>1396-03-31 (10)</t>
-  </si>
-  <si>
-    <t>1397-04-11 (10)</t>
-  </si>
-  <si>
     <t>1398-03-22 (8)</t>
   </si>
   <si>
@@ -97,7 +67,7 @@
     <t>1401-03-16 (8)</t>
   </si>
   <si>
-    <t>1401-08-02 (4)</t>
+    <t>1401-10-29 (6)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -133,16 +103,16 @@
     <t>سرمایه گذاری در املاک</t>
   </si>
   <si>
+    <t>داراییهای ثابت مشهود</t>
+  </si>
+  <si>
+    <t>داراییهای نامشهود</t>
+  </si>
+  <si>
+    <t>پیش پرداخت های سرمایه ای</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>داراییهای ثابت مشهود</t>
-  </si>
-  <si>
-    <t>داراییهای نامشهود</t>
-  </si>
-  <si>
-    <t>پیش پرداخت های سرمایه ای</t>
   </si>
   <si>
     <t>سایر دارایی ها</t>
@@ -728,18 +698,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -747,13 +717,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,13 +728,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -779,13 +739,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -793,13 +748,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -809,13 +759,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -825,13 +770,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -839,13 +779,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -865,59 +800,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -925,15 +830,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -941,195 +841,115 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>117175</v>
+        <v>92944</v>
       </c>
       <c r="E12" s="15">
-        <v>103712</v>
+        <v>172878</v>
       </c>
       <c r="F12" s="15">
-        <v>56044</v>
+        <v>201578</v>
       </c>
       <c r="G12" s="15">
-        <v>235238</v>
+        <v>454985</v>
       </c>
       <c r="H12" s="15">
-        <v>93646</v>
-      </c>
-      <c r="I12" s="15">
-        <v>92944</v>
-      </c>
-      <c r="J12" s="15">
-        <v>172878</v>
-      </c>
-      <c r="K12" s="15">
-        <v>201578</v>
-      </c>
-      <c r="L12" s="15">
-        <v>454985</v>
-      </c>
-      <c r="M12" s="15">
         <v>586777</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>4302</v>
+        <v>4600</v>
       </c>
       <c r="E13" s="11">
-        <v>4431</v>
+        <v>5075</v>
       </c>
       <c r="F13" s="11">
-        <v>4515</v>
+        <v>5685</v>
       </c>
       <c r="G13" s="11">
-        <v>4482</v>
+        <v>6451</v>
       </c>
       <c r="H13" s="11">
-        <v>4504</v>
-      </c>
-      <c r="I13" s="11">
-        <v>4600</v>
-      </c>
-      <c r="J13" s="11">
-        <v>5075</v>
-      </c>
-      <c r="K13" s="11">
-        <v>5685</v>
-      </c>
-      <c r="L13" s="11">
-        <v>6451</v>
-      </c>
-      <c r="M13" s="11">
         <v>6542</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>1191311</v>
+        <v>2769704</v>
       </c>
       <c r="E14" s="15">
-        <v>1501509</v>
+        <v>2927006</v>
       </c>
       <c r="F14" s="15">
-        <v>2539504</v>
+        <v>5757910</v>
       </c>
       <c r="G14" s="15">
-        <v>2407653</v>
+        <v>6617545</v>
       </c>
       <c r="H14" s="15">
-        <v>2942735</v>
-      </c>
-      <c r="I14" s="15">
-        <v>2769704</v>
-      </c>
-      <c r="J14" s="15">
-        <v>2927006</v>
-      </c>
-      <c r="K14" s="15">
-        <v>5757910</v>
-      </c>
-      <c r="L14" s="15">
-        <v>6617545</v>
-      </c>
-      <c r="M14" s="15">
         <v>9666985</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>515099</v>
+        <v>295269</v>
       </c>
       <c r="E15" s="11">
-        <v>853873</v>
+        <v>589053</v>
       </c>
       <c r="F15" s="11">
-        <v>1134790</v>
+        <v>1304624</v>
       </c>
       <c r="G15" s="11">
-        <v>722832</v>
+        <v>1711986</v>
       </c>
       <c r="H15" s="11">
-        <v>636032</v>
-      </c>
-      <c r="I15" s="11">
-        <v>295269</v>
-      </c>
-      <c r="J15" s="11">
-        <v>589053</v>
-      </c>
-      <c r="K15" s="11">
-        <v>1304624</v>
-      </c>
-      <c r="L15" s="11">
-        <v>1711986</v>
-      </c>
-      <c r="M15" s="11">
         <v>2135914</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>150804</v>
+        <v>66186</v>
       </c>
       <c r="E16" s="15">
-        <v>277787</v>
+        <v>360981</v>
       </c>
       <c r="F16" s="15">
-        <v>46011</v>
+        <v>224387</v>
       </c>
       <c r="G16" s="15">
-        <v>39362</v>
+        <v>370316</v>
       </c>
       <c r="H16" s="15">
-        <v>37071</v>
-      </c>
-      <c r="I16" s="15">
-        <v>66186</v>
-      </c>
-      <c r="J16" s="15">
-        <v>360981</v>
-      </c>
-      <c r="K16" s="15">
-        <v>224387</v>
-      </c>
-      <c r="L16" s="15">
-        <v>370316</v>
-      </c>
-      <c r="M16" s="15">
         <v>135349</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1139,148 +959,88 @@
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>115227</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <v>954500</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>115227</v>
-      </c>
-      <c r="L17" s="11">
-        <v>954500</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>1978691</v>
+        <v>3228703</v>
       </c>
       <c r="E18" s="17">
-        <v>2741312</v>
+        <v>4054993</v>
       </c>
       <c r="F18" s="17">
-        <v>3780864</v>
+        <v>7609411</v>
       </c>
       <c r="G18" s="17">
-        <v>3409567</v>
+        <v>10115783</v>
       </c>
       <c r="H18" s="17">
-        <v>3713988</v>
-      </c>
-      <c r="I18" s="17">
-        <v>3228703</v>
-      </c>
-      <c r="J18" s="17">
-        <v>4054993</v>
-      </c>
-      <c r="K18" s="17">
-        <v>7609411</v>
-      </c>
-      <c r="L18" s="17">
-        <v>10115783</v>
-      </c>
-      <c r="M18" s="17">
         <v>12531567</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>0</v>
+        <v>134445</v>
       </c>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>109507</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>5612</v>
       </c>
       <c r="G19" s="11">
-        <v>5993</v>
+        <v>5450</v>
       </c>
       <c r="H19" s="11">
-        <v>5371</v>
-      </c>
-      <c r="I19" s="11">
-        <v>134445</v>
-      </c>
-      <c r="J19" s="11">
-        <v>109507</v>
-      </c>
-      <c r="K19" s="11">
-        <v>5612</v>
-      </c>
-      <c r="L19" s="11">
-        <v>5450</v>
-      </c>
-      <c r="M19" s="11">
         <v>3272</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
         <v>134591</v>
       </c>
       <c r="E20" s="15">
-        <v>134591</v>
+        <v>210093</v>
       </c>
       <c r="F20" s="15">
-        <v>134591</v>
+        <v>158801</v>
       </c>
       <c r="G20" s="15">
-        <v>134591</v>
+        <v>368445</v>
       </c>
       <c r="H20" s="15">
-        <v>134591</v>
-      </c>
-      <c r="I20" s="15">
-        <v>134591</v>
-      </c>
-      <c r="J20" s="15">
-        <v>210093</v>
-      </c>
-      <c r="K20" s="15">
-        <v>158801</v>
-      </c>
-      <c r="L20" s="15">
-        <v>368445</v>
-      </c>
-      <c r="M20" s="15">
         <v>376080</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>37</v>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
       </c>
       <c r="F21" s="11">
         <v>0</v>
@@ -1291,241 +1051,136 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>41552</v>
+        <v>623370</v>
       </c>
       <c r="E22" s="15">
-        <v>135504</v>
+        <v>618598</v>
       </c>
       <c r="F22" s="15">
-        <v>333566</v>
+        <v>484946</v>
       </c>
       <c r="G22" s="15">
-        <v>463258</v>
+        <v>590756</v>
       </c>
       <c r="H22" s="15">
-        <v>613852</v>
-      </c>
-      <c r="I22" s="15">
-        <v>623370</v>
-      </c>
-      <c r="J22" s="15">
-        <v>618598</v>
-      </c>
-      <c r="K22" s="15">
-        <v>484946</v>
-      </c>
-      <c r="L22" s="15">
-        <v>590756</v>
-      </c>
-      <c r="M22" s="15">
         <v>652409</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>1887</v>
+        <v>1264</v>
       </c>
       <c r="E23" s="11">
-        <v>1337</v>
+        <v>1048</v>
       </c>
       <c r="F23" s="11">
-        <v>786</v>
+        <v>1304</v>
       </c>
       <c r="G23" s="11">
-        <v>388</v>
+        <v>1794</v>
       </c>
       <c r="H23" s="11">
-        <v>885</v>
-      </c>
-      <c r="I23" s="11">
-        <v>1264</v>
-      </c>
-      <c r="J23" s="11">
-        <v>1048</v>
-      </c>
-      <c r="K23" s="11">
-        <v>1304</v>
-      </c>
-      <c r="L23" s="11">
-        <v>1794</v>
-      </c>
-      <c r="M23" s="11">
         <v>13586</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="15">
-        <v>0</v>
+      <c r="D24" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>3496</v>
+        <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>4205</v>
+        <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>4356</v>
+        <v>39582</v>
       </c>
       <c r="G25" s="11">
-        <v>0</v>
+        <v>36506</v>
       </c>
       <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>39582</v>
-      </c>
-      <c r="L25" s="11">
-        <v>36506</v>
-      </c>
-      <c r="M25" s="11">
         <v>966560</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>181526</v>
+        <v>893670</v>
       </c>
       <c r="E26" s="17">
-        <v>275637</v>
+        <v>939246</v>
       </c>
       <c r="F26" s="17">
-        <v>473299</v>
+        <v>690245</v>
       </c>
       <c r="G26" s="17">
-        <v>604230</v>
+        <v>1002951</v>
       </c>
       <c r="H26" s="17">
-        <v>754699</v>
-      </c>
-      <c r="I26" s="17">
-        <v>893670</v>
-      </c>
-      <c r="J26" s="17">
-        <v>939246</v>
-      </c>
-      <c r="K26" s="17">
-        <v>690245</v>
-      </c>
-      <c r="L26" s="17">
-        <v>1002951</v>
-      </c>
-      <c r="M26" s="17">
         <v>2011907</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>2160217</v>
+        <v>4122373</v>
       </c>
       <c r="E27" s="19">
-        <v>3016949</v>
+        <v>4994239</v>
       </c>
       <c r="F27" s="19">
-        <v>4254163</v>
+        <v>8299656</v>
       </c>
       <c r="G27" s="19">
-        <v>4013797</v>
+        <v>11118734</v>
       </c>
       <c r="H27" s="19">
-        <v>4468687</v>
-      </c>
-      <c r="I27" s="19">
-        <v>4122373</v>
-      </c>
-      <c r="J27" s="19">
-        <v>4994239</v>
-      </c>
-      <c r="K27" s="19">
-        <v>8299656</v>
-      </c>
-      <c r="L27" s="19">
-        <v>11118734</v>
-      </c>
-      <c r="M27" s="19">
         <v>14543474</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1533,238 +1188,143 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>219242</v>
+        <v>794431</v>
       </c>
       <c r="E29" s="15">
-        <v>116475</v>
+        <v>1254368</v>
       </c>
       <c r="F29" s="15">
-        <v>501444</v>
+        <v>993846</v>
       </c>
       <c r="G29" s="15">
-        <v>417443</v>
+        <v>1271387</v>
       </c>
       <c r="H29" s="15">
-        <v>639756</v>
-      </c>
-      <c r="I29" s="15">
-        <v>794431</v>
-      </c>
-      <c r="J29" s="15">
-        <v>1254368</v>
-      </c>
-      <c r="K29" s="15">
-        <v>993846</v>
-      </c>
-      <c r="L29" s="15">
-        <v>1271387</v>
-      </c>
-      <c r="M29" s="15">
         <v>1786552</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="11">
-        <v>115905</v>
-      </c>
-      <c r="E30" s="11">
-        <v>99182</v>
+      <c r="D30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>0</v>
+        <v>52755</v>
       </c>
       <c r="E31" s="15">
-        <v>6196</v>
+        <v>73678</v>
       </c>
       <c r="F31" s="15">
-        <v>13746</v>
+        <v>32065</v>
       </c>
       <c r="G31" s="15">
-        <v>16390</v>
+        <v>26837</v>
       </c>
       <c r="H31" s="15">
-        <v>15636</v>
-      </c>
-      <c r="I31" s="15">
-        <v>52755</v>
-      </c>
-      <c r="J31" s="15">
-        <v>73678</v>
-      </c>
-      <c r="K31" s="15">
-        <v>32065</v>
-      </c>
-      <c r="L31" s="15">
         <v>26837</v>
       </c>
-      <c r="M31" s="15">
-        <v>26837</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>61753</v>
+        <v>37837</v>
       </c>
       <c r="E32" s="11">
-        <v>146085</v>
+        <v>162232</v>
       </c>
       <c r="F32" s="11">
-        <v>108580</v>
+        <v>539877</v>
       </c>
       <c r="G32" s="11">
-        <v>131072</v>
+        <v>326572</v>
       </c>
       <c r="H32" s="11">
-        <v>111552</v>
-      </c>
-      <c r="I32" s="11">
-        <v>37837</v>
-      </c>
-      <c r="J32" s="11">
-        <v>162232</v>
-      </c>
-      <c r="K32" s="11">
-        <v>539877</v>
-      </c>
-      <c r="L32" s="11">
-        <v>326572</v>
-      </c>
-      <c r="M32" s="11">
         <v>127511</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>218706</v>
+        <v>803658</v>
       </c>
       <c r="E33" s="15">
-        <v>269889</v>
+        <v>448208</v>
       </c>
       <c r="F33" s="15">
-        <v>464172</v>
+        <v>133265</v>
       </c>
       <c r="G33" s="15">
-        <v>494688</v>
+        <v>2419457</v>
       </c>
       <c r="H33" s="15">
-        <v>514070</v>
-      </c>
-      <c r="I33" s="15">
-        <v>803658</v>
-      </c>
-      <c r="J33" s="15">
-        <v>448208</v>
-      </c>
-      <c r="K33" s="15">
-        <v>133265</v>
-      </c>
-      <c r="L33" s="15">
-        <v>2419457</v>
-      </c>
-      <c r="M33" s="15">
         <v>2793720</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>756353</v>
+        <v>1995236</v>
       </c>
       <c r="E34" s="11">
-        <v>1106246</v>
+        <v>1633057</v>
       </c>
       <c r="F34" s="11">
-        <v>1773986</v>
+        <v>1685022</v>
       </c>
       <c r="G34" s="11">
-        <v>1474778</v>
+        <v>2709232</v>
       </c>
       <c r="H34" s="11">
-        <v>1499867</v>
-      </c>
-      <c r="I34" s="11">
-        <v>1995236</v>
-      </c>
-      <c r="J34" s="11">
-        <v>1633057</v>
-      </c>
-      <c r="K34" s="11">
-        <v>1685022</v>
-      </c>
-      <c r="L34" s="11">
-        <v>2709232</v>
-      </c>
-      <c r="M34" s="11">
         <v>5414939</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>37</v>
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
@@ -1775,25 +1335,10 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1811,143 +1356,83 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>1371959</v>
+        <v>3683917</v>
       </c>
       <c r="E37" s="17">
-        <v>1744073</v>
+        <v>3571543</v>
       </c>
       <c r="F37" s="17">
-        <v>2861928</v>
+        <v>3384075</v>
       </c>
       <c r="G37" s="17">
-        <v>2534371</v>
+        <v>6753485</v>
       </c>
       <c r="H37" s="17">
-        <v>2780881</v>
-      </c>
-      <c r="I37" s="17">
-        <v>3683917</v>
-      </c>
-      <c r="J37" s="17">
-        <v>3571543</v>
-      </c>
-      <c r="K37" s="17">
-        <v>3384075</v>
-      </c>
-      <c r="L37" s="17">
-        <v>6753485</v>
-      </c>
-      <c r="M37" s="17">
         <v>10149559</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>7876</v>
+        <v>20758</v>
       </c>
       <c r="E38" s="11">
-        <v>9251</v>
+        <v>22170</v>
       </c>
       <c r="F38" s="11">
-        <v>11277</v>
+        <v>26463</v>
       </c>
       <c r="G38" s="11">
-        <v>14015</v>
+        <v>29006</v>
       </c>
       <c r="H38" s="11">
-        <v>16837</v>
-      </c>
-      <c r="I38" s="11">
-        <v>20758</v>
-      </c>
-      <c r="J38" s="11">
-        <v>22170</v>
-      </c>
-      <c r="K38" s="11">
-        <v>26463</v>
-      </c>
-      <c r="L38" s="11">
-        <v>29006</v>
-      </c>
-      <c r="M38" s="11">
         <v>39713</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>37</v>
+      <c r="D39" s="15">
+        <v>0</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
-        <v>0</v>
-      </c>
-      <c r="I39" s="15">
-        <v>0</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
         <v>0</v>
       </c>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>16140</v>
       </c>
       <c r="F40" s="11">
-        <v>0</v>
+        <v>2540</v>
       </c>
       <c r="G40" s="11">
         <v>0</v>
@@ -1955,133 +1440,73 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <v>16140</v>
-      </c>
-      <c r="K40" s="11">
-        <v>2540</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>19321</v>
+        <v>63836</v>
       </c>
       <c r="E41" s="15">
-        <v>23335</v>
+        <v>71441</v>
       </c>
       <c r="F41" s="15">
-        <v>31396</v>
+        <v>97838</v>
       </c>
       <c r="G41" s="15">
-        <v>38573</v>
+        <v>136452</v>
       </c>
       <c r="H41" s="15">
-        <v>46369</v>
-      </c>
-      <c r="I41" s="15">
-        <v>63836</v>
-      </c>
-      <c r="J41" s="15">
-        <v>71441</v>
-      </c>
-      <c r="K41" s="15">
-        <v>97838</v>
-      </c>
-      <c r="L41" s="15">
-        <v>136452</v>
-      </c>
-      <c r="M41" s="15">
         <v>184119</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>27197</v>
+        <v>84594</v>
       </c>
       <c r="E42" s="19">
-        <v>32586</v>
+        <v>109751</v>
       </c>
       <c r="F42" s="19">
-        <v>42673</v>
+        <v>126841</v>
       </c>
       <c r="G42" s="19">
-        <v>52588</v>
+        <v>165458</v>
       </c>
       <c r="H42" s="19">
-        <v>63206</v>
-      </c>
-      <c r="I42" s="19">
-        <v>84594</v>
-      </c>
-      <c r="J42" s="19">
-        <v>109751</v>
-      </c>
-      <c r="K42" s="19">
-        <v>126841</v>
-      </c>
-      <c r="L42" s="19">
-        <v>165458</v>
-      </c>
-      <c r="M42" s="19">
         <v>223832</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>1399156</v>
+        <v>3768511</v>
       </c>
       <c r="E43" s="17">
-        <v>1776659</v>
+        <v>3681294</v>
       </c>
       <c r="F43" s="17">
-        <v>2904601</v>
+        <v>3510916</v>
       </c>
       <c r="G43" s="17">
-        <v>2586959</v>
+        <v>6918943</v>
       </c>
       <c r="H43" s="17">
-        <v>2844087</v>
-      </c>
-      <c r="I43" s="17">
-        <v>3768511</v>
-      </c>
-      <c r="J43" s="17">
-        <v>3681294</v>
-      </c>
-      <c r="K43" s="17">
-        <v>3510916</v>
-      </c>
-      <c r="L43" s="17">
-        <v>6918943</v>
-      </c>
-      <c r="M43" s="17">
         <v>10373391</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2089,51 +1514,31 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>150000</v>
+        <v>400000</v>
       </c>
       <c r="E45" s="15">
-        <v>150000</v>
+        <v>400000</v>
       </c>
       <c r="F45" s="15">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="G45" s="15">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="H45" s="15">
-        <v>300000</v>
-      </c>
-      <c r="I45" s="15">
-        <v>400000</v>
-      </c>
-      <c r="J45" s="15">
-        <v>400000</v>
-      </c>
-      <c r="K45" s="15">
-        <v>600000</v>
-      </c>
-      <c r="L45" s="15">
-        <v>600000</v>
-      </c>
-      <c r="M45" s="15">
         <v>1600000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2151,25 +1556,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2185,142 +1575,82 @@
         <v>0</v>
       </c>
       <c r="H47" s="15">
-        <v>99930</v>
-      </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>37</v>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
       </c>
       <c r="F48" s="11">
         <v>0</v>
       </c>
       <c r="G48" s="11">
-        <v>0</v>
+        <v>-53257</v>
       </c>
       <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>-53257</v>
-      </c>
-      <c r="M48" s="11">
         <v>-100384</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="E50" s="11">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="F50" s="11">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G50" s="11">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="H50" s="11">
-        <v>30000</v>
-      </c>
-      <c r="I50" s="11">
-        <v>30000</v>
-      </c>
-      <c r="J50" s="11">
-        <v>40000</v>
-      </c>
-      <c r="K50" s="11">
-        <v>60000</v>
-      </c>
-      <c r="L50" s="11">
-        <v>60000</v>
-      </c>
-      <c r="M50" s="11">
         <v>160000</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
         <v>0</v>
       </c>
       <c r="E51" s="15">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="F51" s="15">
         <v>0</v>
@@ -2331,61 +1661,31 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-      <c r="I51" s="15">
-        <v>0</v>
-      </c>
-      <c r="J51" s="15">
-        <v>0</v>
-      </c>
-      <c r="K51" s="15">
-        <v>0</v>
-      </c>
-      <c r="L51" s="15">
-        <v>0</v>
-      </c>
-      <c r="M51" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11">
         <v>0</v>
       </c>
-      <c r="E52" s="11">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="11">
-        <v>0</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2403,68 +1703,38 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
         <v>0</v>
       </c>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>37</v>
+      <c r="D55" s="15">
+        <v>0</v>
+      </c>
+      <c r="E55" s="15">
+        <v>0</v>
       </c>
       <c r="F55" s="15">
         <v>0</v>
@@ -2475,131 +1745,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>596061</v>
+        <v>-76138</v>
       </c>
       <c r="E56" s="11">
-        <v>925290</v>
+        <v>872945</v>
       </c>
       <c r="F56" s="11">
-        <v>1019562</v>
+        <v>4128740</v>
       </c>
       <c r="G56" s="11">
-        <v>1096838</v>
+        <v>3593048</v>
       </c>
       <c r="H56" s="11">
-        <v>1194670</v>
-      </c>
-      <c r="I56" s="11">
-        <v>-76138</v>
-      </c>
-      <c r="J56" s="11">
-        <v>872945</v>
-      </c>
-      <c r="K56" s="11">
-        <v>4128740</v>
-      </c>
-      <c r="L56" s="11">
-        <v>3593048</v>
-      </c>
-      <c r="M56" s="11">
         <v>2510467</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>761061</v>
+        <v>353862</v>
       </c>
       <c r="E57" s="17">
-        <v>1240290</v>
+        <v>1312945</v>
       </c>
       <c r="F57" s="17">
-        <v>1349562</v>
+        <v>4788740</v>
       </c>
       <c r="G57" s="17">
-        <v>1426838</v>
+        <v>4199791</v>
       </c>
       <c r="H57" s="17">
-        <v>1624600</v>
-      </c>
-      <c r="I57" s="17">
-        <v>353862</v>
-      </c>
-      <c r="J57" s="17">
-        <v>1312945</v>
-      </c>
-      <c r="K57" s="17">
-        <v>4788740</v>
-      </c>
-      <c r="L57" s="17">
-        <v>4199791</v>
-      </c>
-      <c r="M57" s="17">
         <v>4170083</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>2160217</v>
+        <v>4122373</v>
       </c>
       <c r="E58" s="19">
-        <v>3016949</v>
+        <v>4994239</v>
       </c>
       <c r="F58" s="19">
-        <v>4254163</v>
+        <v>8299656</v>
       </c>
       <c r="G58" s="19">
-        <v>4013797</v>
+        <v>11118734</v>
       </c>
       <c r="H58" s="19">
-        <v>4468687</v>
-      </c>
-      <c r="I58" s="19">
-        <v>4122373</v>
-      </c>
-      <c r="J58" s="19">
-        <v>4994239</v>
-      </c>
-      <c r="K58" s="19">
-        <v>8299656</v>
-      </c>
-      <c r="L58" s="19">
-        <v>11118734</v>
-      </c>
-      <c r="M58" s="19">
         <v>14543474</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2607,11 +1817,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/darou/defara/balancesheet/yearly.xlsx
+++ b/database/industries/darou/defara/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\defara\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\defara\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E62DD-D64B-4EC4-A364-9B9488308399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB116F6-B722-42E1-8411-20AF46FA22A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -702,14 +702,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -831,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -863,7 +863,7 @@
         <v>586777</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -884,7 +884,7 @@
         <v>6542</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
@@ -905,7 +905,7 @@
         <v>9666985</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -926,7 +926,7 @@
         <v>2135914</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -947,7 +947,7 @@
         <v>135349</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
@@ -989,7 +989,7 @@
         <v>12531567</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>376080</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>652409</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>13586</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>966560</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>2011907</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>14543474</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>1786552</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>26837</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>127511</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>2793720</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>5414939</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>10149559</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>39713</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>184119</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>223832</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>10373391</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>-100384</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>2510467</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>4170083</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>14543474</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
